--- a/notebooks/seeds/housingcredit/HousingCreditSeeds.xlsx
+++ b/notebooks/seeds/housingcredit/HousingCreditSeeds.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/code/pedrojfsantos/pwc_challenge/bank-benchmark-api/notebooks/seeds/housingcredit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEE5022-20D4-B442-89D3-8A3D20E1B5E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21304B9E-04CE-4147-8991-4BEF7CE61A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{EE69DAD0-6D85-0B4D-8459-B4F331FE1DAC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{EE69DAD0-6D85-0B4D-8459-B4F331FE1DAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Abanca" sheetId="1" r:id="rId1"/>
-    <sheet name="prices" sheetId="6" r:id="rId2"/>
-    <sheet name="fees" sheetId="5" r:id="rId3"/>
-    <sheet name="subproducts" sheetId="4" r:id="rId4"/>
+    <sheet name="banks" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="prices" sheetId="6" r:id="rId3"/>
+    <sheet name="fees" sheetId="5" r:id="rId4"/>
+    <sheet name="subproducts" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">fees!$A$1:$F$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">fees!$A$1:$F$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$227</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="539">
   <si>
     <t>Acresce Imposto </t>
   </si>
@@ -989,6 +991,911 @@
   <si>
     <t>process</t>
   </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>Commissions</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>2.1. Crédito à habitação e outros créditos hipotecários</t>
+  </si>
+  <si>
+    <t>Euros 
+(Mín/Máx)</t>
+  </si>
+  <si>
+    <t>Crédito à Habitação com Garantia Hipotecária Nota 1 
+Habitação Própria / Habitação Própria (oferta sénior) / Troca de Banco / Habitação para Arrendamento / Crédito Intercalar Terrenos / Troca de Casa (Fora 
+de comercialização)
+Crédito à Habitação sem Garantia Hipotecária
+Crédito Intercalar Sinal
+Outros Créditos Hipotecários
+Multifinalidades Posterior/Isolado / Multifinalidades Saúde / Crédito Hipotecário Investimentos Diversos</t>
+  </si>
+  <si>
+    <t>1. Comissão de processo</t>
+  </si>
+  <si>
+    <t>Habitação Própria</t>
+  </si>
+  <si>
+    <t>260,00</t>
+  </si>
+  <si>
+    <t>Habitação Própria (oferta sénior)</t>
+  </si>
+  <si>
+    <t>Troca de Casa (Fora de comercialização)</t>
+  </si>
+  <si>
+    <t>Troca de Banco</t>
+  </si>
+  <si>
+    <t>Habitação para Arrendamento</t>
+  </si>
+  <si>
+    <t>Crédito intercalar terrenos</t>
+  </si>
+  <si>
+    <t>50,00</t>
+  </si>
+  <si>
+    <t>Crédito Intercalar Sinal</t>
+  </si>
+  <si>
+    <t>Multifinalidades posterior / isolado</t>
+  </si>
+  <si>
+    <t>250,00</t>
+  </si>
+  <si>
+    <t>Multifinalidades Saúde</t>
+  </si>
+  <si>
+    <t>Crédito Hipotecário Investimentos Diversos</t>
+  </si>
+  <si>
+    <t>2. Avaliação de imóveis</t>
+  </si>
+  <si>
+    <t>3. Reapreciação de avaliação de imóveis</t>
+  </si>
+  <si>
+    <t>4. Vistoria de imóveis</t>
+  </si>
+  <si>
+    <t>5. Reanálise do processo</t>
+  </si>
+  <si>
+    <t>100,00</t>
+  </si>
+  <si>
+    <t>6. Dispensa de registos provisórios</t>
+  </si>
+  <si>
+    <t>7. Conversão / Efetivação de registos</t>
+  </si>
+  <si>
+    <t>8. Preparação de escrituras / Minutas para escrituras</t>
+  </si>
+  <si>
+    <t>120,00</t>
+  </si>
+  <si>
+    <t>9. Comissão de processamento de prestação</t>
+  </si>
+  <si>
+    <t>1,50 / mês</t>
+  </si>
+  <si>
+    <t>10. Declarações de dívida e não dívida</t>
+  </si>
+  <si>
+    <t>11. Declaração para troca de seguradora</t>
+  </si>
+  <si>
+    <t>12. 2ª via de relatório de avaliação</t>
+  </si>
+  <si>
+    <t>15,00</t>
+  </si>
+  <si>
+    <t>13. Comissão de reembolso antecipado parcial</t>
+  </si>
+  <si>
+    <t>Taxa fixa</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Taxa variável</t>
+  </si>
+  <si>
+    <t>14. Comissão de recuperação de valores em dívida</t>
+  </si>
+  <si>
+    <t>Prestação vencida e não paga ≤ 50.000 €</t>
+  </si>
+  <si>
+    <t>12,00 / 150,00</t>
+  </si>
+  <si>
+    <t>Prestação vencida e não paga &gt; 50.000 €</t>
+  </si>
+  <si>
+    <t>15. Extinção de procurações irrevogáveis</t>
+  </si>
+  <si>
+    <t>Com emissão de declaração particular</t>
+  </si>
+  <si>
+    <t>80,00</t>
+  </si>
+  <si>
+    <t>Revogação em Notário Público</t>
+  </si>
+  <si>
+    <t>Renúncia em Notário Privativo</t>
+  </si>
+  <si>
+    <t>90,00</t>
+  </si>
+  <si>
+    <t>16. Comissão de reembolso antecipado total</t>
+  </si>
+  <si>
+    <t>17. 2ª via de documento de distrate de hipoteca</t>
+  </si>
+  <si>
+    <t>60,00</t>
+  </si>
+  <si>
+    <t>18. Declaração de não dívida</t>
+  </si>
+  <si>
+    <t>Acresce Imposto</t>
+  </si>
+  <si>
+    <t>Outras despesas associadas</t>
+  </si>
+  <si>
+    <t>Despesas cobradas no âmbito do serviço Casa Pronta</t>
+  </si>
+  <si>
+    <t>Pedido de Certidão de Teor On-Line</t>
+  </si>
+  <si>
+    <t>Indeferimento ou desistência</t>
+  </si>
+  <si>
+    <t>Despesas com a celebração do contrato de crédito (DPA)</t>
+  </si>
+  <si>
+    <t>962,25</t>
+  </si>
+  <si>
+    <t>Depósito eletrónico de documento</t>
+  </si>
+  <si>
+    <t>20,00</t>
+  </si>
+  <si>
+    <t>comissões iniciais</t>
+  </si>
+  <si>
+    <t>Reanálise</t>
+  </si>
+  <si>
+    <t>avaliação</t>
+  </si>
+  <si>
+    <t>imóvel residêncial</t>
+  </si>
+  <si>
+    <t>garagens e arrecadações não anexas ao imóvel residencial</t>
+  </si>
+  <si>
+    <t>Comissões associadas a atos administrativos</t>
+  </si>
+  <si>
+    <t>Não realização da escritura </t>
+  </si>
+  <si>
+    <t>Alteração do local da escritura </t>
+  </si>
+  <si>
+    <t>Comissão de reembolso antecipado parcial</t>
+  </si>
+  <si>
+    <t>Taxa Variável</t>
+  </si>
+  <si>
+    <t>Comissão de recuperação de valores em dívida</t>
+  </si>
+  <si>
+    <t>Prestação até 50.000 €</t>
+  </si>
+  <si>
+    <t>Prestação &gt; 50.000 € </t>
+  </si>
+  <si>
+    <t>Declarações de dívida</t>
+  </si>
+  <si>
+    <t>Mudança de regime de crédito </t>
+  </si>
+  <si>
+    <t>Vistorias (andamento de obras) Só se aplica se a finalidade for para construção ou realização de obras.</t>
+  </si>
+  <si>
+    <t>Comissão de reembolso antecipado total</t>
+  </si>
+  <si>
+    <t>Comissão de deslocação</t>
+  </si>
+  <si>
+    <t>Até 100 Kms</t>
+  </si>
+  <si>
+    <t>101 a 250 Kms </t>
+  </si>
+  <si>
+    <t>&gt; 250 Kms </t>
+  </si>
+  <si>
+    <t>Comissão de formalização</t>
+  </si>
+  <si>
+    <t>Avaliação</t>
+  </si>
+  <si>
+    <t>Imóvel Residencial </t>
+  </si>
+  <si>
+    <t>Garagens e arrecadações não anexas ao imóvel residencial </t>
+  </si>
+  <si>
+    <t>Não realização da escritura</t>
+  </si>
+  <si>
+    <t>Taxa Fixa</t>
+  </si>
+  <si>
+    <t>Prestação &gt; 50.000 €</t>
+  </si>
+  <si>
+    <t>Comissões associadas a atos administrativos – declarações de dívida</t>
+  </si>
+  <si>
+    <t>Vistorias</t>
+  </si>
+  <si>
+    <t>Emissão de extratos de conta de empréstimos liquidados</t>
+  </si>
+  <si>
+    <t>Comissões de deslocação</t>
+  </si>
+  <si>
+    <t>101 a 250 Kms</t>
+  </si>
+  <si>
+    <t>Imposto do Selo sobre concessão de crédito (verba 17.1 da TGIS)</t>
+  </si>
+  <si>
+    <t>Emolumentos notariais</t>
+  </si>
+  <si>
+    <t>Emolumentos “Casa Pronta” (vide Nota 9)</t>
+  </si>
+  <si>
+    <t>Formalização (vide Nota 8) </t>
+  </si>
+  <si>
+    <t>Certidão permanente on-line</t>
+  </si>
+  <si>
+    <t>Desistência ou não conclusão do processo por motivos imputáveis ao cliente</t>
+  </si>
+  <si>
+    <t>Comissão de antecipação (pré.aviso 7 dias) </t>
+  </si>
+  <si>
+    <t>Pedido de 2ª via de Caderneta Predial</t>
+  </si>
+  <si>
+    <t>Emissão de declarações não obrigatórias por lei</t>
+  </si>
+  <si>
+    <t>Emissão de 2ª vias de Declaração para efeitos de IRS – Urgente</t>
+  </si>
+  <si>
+    <t>Emissão de 2º vias de Declaração para efeitos de IRS</t>
+  </si>
+  <si>
+    <t>Emissão de 2ª vias de faturas</t>
+  </si>
+  <si>
+    <t>Cessação da posição contratual</t>
+  </si>
+  <si>
+    <t>Comissão de compra antecipada (pré-aviso 10 dias) </t>
+  </si>
+  <si>
+    <t>Avaliação do Imóvel</t>
+  </si>
+  <si>
+    <t>Abertura de Processo</t>
+  </si>
+  <si>
+    <t>Formalização</t>
+  </si>
+  <si>
+    <t>Solicitadoria</t>
+  </si>
+  <si>
+    <t>Comissão de Reembolso Antecipado Parcial</t>
+  </si>
+  <si>
+    <t>Comissão de Liquidação de Prestação</t>
+  </si>
+  <si>
+    <t>Comissão de recuperação valores em dívida</t>
+  </si>
+  <si>
+    <t>Comissão de processo</t>
+  </si>
+  <si>
+    <t>Avaliação de imóveis</t>
+  </si>
+  <si>
+    <t>Reapreciação de avaliação de imóveis</t>
+  </si>
+  <si>
+    <t>Vistoria de imóveis</t>
+  </si>
+  <si>
+    <t>Reanálise do processo</t>
+  </si>
+  <si>
+    <t>Dispensa de registos provisórios</t>
+  </si>
+  <si>
+    <t>Conversão / Efetivação de registos</t>
+  </si>
+  <si>
+    <t>Preparação de escrituras / Minutas para escrituras</t>
+  </si>
+  <si>
+    <t>Comissão de processamento de prestação</t>
+  </si>
+  <si>
+    <t>Declarações de dívida e não dívida</t>
+  </si>
+  <si>
+    <t>Declaração para troca de seguradora</t>
+  </si>
+  <si>
+    <t>2ª via de relatório de avaliação</t>
+  </si>
+  <si>
+    <t>Extinção de procurações irrevogáveis</t>
+  </si>
+  <si>
+    <t>2ª via de documento de distrate de hipoteca</t>
+  </si>
+  <si>
+    <t>Declaração de não dívida</t>
+  </si>
+  <si>
+    <t>Nota Ge</t>
+  </si>
+  <si>
+    <t>Nota 1</t>
+  </si>
+  <si>
+    <t>Nota 2 Comissãocobradanocasodeaprovaçãodapropostadecrédito,sendodebitadanacontaD.O.logoapósacartadeaprovaçãofinale
+não podendo ser anulada, ainda que o crédito não seja contratado.
+Nota 3 No caso de processos com empréstimo para habitação em simultâneo, apenas é devida a comissão do crédito principal.
+Nota 4 Oreembolsoantecipadoparcialpodeocorreremqualquermomentodocontrato,independentementedocapitalareembolsar,desdeque
+efetuado em data coincidente com o vencimento das prestações e mediante comunicação escrita ao Banco, com uma antecedência
+mínima de 7 (sete) dias úteis. Incide sobre o montante a reembolsar antecipadamente.
+Nota 5 O reembolso antecipado total pode ocorrer em qualquer momento, mediante comunicação escrita ao Banco, com uma antecedência
+mínima de 10 (dez) dias úteis. Incide sobre o montante a amortizar.
+Nota 6 De acordo com o DL n.º 74-A/2017, de 23 de junho, os casos de reembolso por motivos de morte, desemprego ou deslocação
+profissional, estão isentos da comissão.
+Nota 7 Isenção da comissão nos casos de amortização antecipada para constituição de um novo empréstimo hipotecário no EuroBic, num
+prazo de 3 meses.
+Nota 8 Em caso de mora, consulte o Folheto de Taxas de Juro - Subsecção 18.1. Crédito à habitação e outros créditos hipotecários.
+Nota 9 Reduçãode50%paraacontaEuroBicPrime comdomiciliaçãodevencimento,ContaEuroBicMaiscomesemcréditodevencimento,
+ContaEuroBicSéniorcomesemcréditodevencimentoeClientescomProtocoloStandard.Reduçãode25%paraaContaEuroBic365
+com domiciliação de vencimento.
+Nota 10 Redução de 75% da comissão de processo, quando associado a Protocolo Premium.
+Nota 11 Aplicável às reanálises que impliquem emissão de nova FIN, desde que não sejam da responsabilidade do Banco.
+Nota 12 Aplicávelacontratoscelebradosaté31/12/2020,emfunçãodaperiodicidadedacobrançadaprestação.Se, porexemplo,aprestação
+for trimestral, serão cobrados 4,50€. 
+Nota 13 Fora de comercialização.
+Nota 14 Incidesobreovalordaprestaçãovencidaenãopaga,sendocobradaumaúnicavezporcadaprestaçãovencidaenãopaganadata
+acordada. Serão ainda devidos juros de mora a calcular nos termos legais em vigor.
+Nota 15 Valor cobrado no momento da formalização do contrato e referente a uma compra e venda e mútuo com hipoteca na modalidade
+DocumentoParticularAutenticado(DPA),cominclusãododepósitodedocumentos.NocasodeTrocadeBanco,ovaloracobraréde
+607,25€.OsvaloresindicadospoderãoseralteradoscasoacontrataçãosejarealizadaemsistemaCasaProntaouCartórioNotarial,ou
+ainda em atos de complexidade acrescida.
+Nota 16 A comissão não é aplicável à emissão de declarações de dívida ou qualquer outra declaração emitida com o mesmo propósito, quando 
+esta tenha por fim o cumprimento de obrigações para acesso a apoios ou prestações sociais e serviços públicos, até ao limite anual de 
+seis declarações, conforme Artigo 6º da Lei n.º 57/2020.</t>
+  </si>
+  <si>
+    <t>Outros Créditos Hipotecários
+Crédito hipotecário multifinalidades</t>
+  </si>
+  <si>
+    <t>1. Comissão de estudo</t>
+  </si>
+  <si>
+    <t>150,00</t>
+  </si>
+  <si>
+    <t>2. Comissão de abertura</t>
+  </si>
+  <si>
+    <t>200,00 / --</t>
+  </si>
+  <si>
+    <t>3. Avaliação de imóveis</t>
+  </si>
+  <si>
+    <t>4. Reapreciação de avaliação de imóveis</t>
+  </si>
+  <si>
+    <t>5. Vistoria de imóveis</t>
+  </si>
+  <si>
+    <t>3,00 / mês</t>
+  </si>
+  <si>
+    <t>10. Comissão relativa a alterações contratuais</t>
+  </si>
+  <si>
+    <t>Com aditamento ao contrato</t>
+  </si>
+  <si>
+    <t>250,00 / --</t>
+  </si>
+  <si>
+    <t>Sem aditamento ao contrato</t>
+  </si>
+  <si>
+    <t>11. Declarações</t>
+  </si>
+  <si>
+    <t>12. Segundas vias</t>
+  </si>
+  <si>
+    <t>Contrato / aditamento a contratos / garantias</t>
+  </si>
+  <si>
+    <t>Outros documentos</t>
+  </si>
+  <si>
+    <t>Comissão de estudo</t>
+  </si>
+  <si>
+    <t>Comissão de abertura</t>
+  </si>
+  <si>
+    <t>Comissão relativa a alterações contratuais</t>
+  </si>
+  <si>
+    <t>Declarações</t>
+  </si>
+  <si>
+    <t>Segundas vias</t>
+  </si>
+  <si>
+    <t>2.1. Crédito à habitação e outros créditos hipotecários (cont.)</t>
+  </si>
+  <si>
+    <t>Outros Créditos Hipotecários (cont.)
+Crédito hipotecário multifinalidades</t>
+  </si>
+  <si>
+    <t>100,00 / --</t>
+  </si>
+  <si>
+    <t>17. Comissão de deslocação de representante do Banco</t>
+  </si>
+  <si>
+    <t>18. 2ª via de documento de distrate de hipoteca</t>
+  </si>
+  <si>
+    <t>19. Declaração de não dívida</t>
+  </si>
+  <si>
+    <t>Comissão de deslocação de representante do Banco</t>
+  </si>
+  <si>
+    <t>Locação Financeira Imobiliária (taxa variável) - Finalidade Habitação</t>
+  </si>
+  <si>
+    <t>Habitação própria permanente, secundária ou para arrendamento.</t>
+  </si>
+  <si>
+    <t>1. Comissões contratuais</t>
+  </si>
+  <si>
+    <t>Montante total  
+(valor de aquisição + IMT)</t>
+  </si>
+  <si>
+    <t>500,00</t>
+  </si>
+  <si>
+    <t>750,00</t>
+  </si>
+  <si>
+    <t>Relocações</t>
+  </si>
+  <si>
+    <t>800,00</t>
+  </si>
+  <si>
+    <t>5. Comissão de gestão</t>
+  </si>
+  <si>
+    <t>10,00 / trimestre</t>
+  </si>
+  <si>
+    <t>6. Comissão de processamento de renda</t>
+  </si>
+  <si>
+    <t>7. Comissão por contratos de sublocação</t>
+  </si>
+  <si>
+    <t>8. Autorização de sublocação</t>
+  </si>
+  <si>
+    <t>75,00</t>
+  </si>
+  <si>
+    <t>9. Cessão da posição contratual</t>
+  </si>
+  <si>
+    <t>10. Comissões relativas a atos administrativos</t>
+  </si>
+  <si>
+    <t>Portes</t>
+  </si>
+  <si>
+    <t>1,00</t>
+  </si>
+  <si>
+    <t>Reenvio de correspondência devolvida (por envio)</t>
+  </si>
+  <si>
+    <t>10,00</t>
+  </si>
+  <si>
+    <t>Cash-flow (por envio)</t>
+  </si>
+  <si>
+    <t>7,50</t>
+  </si>
+  <si>
+    <t>Impostos, taxas e outros encargos sobre o imóvel locado</t>
+  </si>
+  <si>
+    <t>Tratamento de notificações de condomínio</t>
+  </si>
+  <si>
+    <t>40,00</t>
+  </si>
+  <si>
+    <t>Alteração do seguro / companhia de seguros</t>
+  </si>
+  <si>
+    <t>Constituição de seguro em substituição do locatário</t>
+  </si>
+  <si>
+    <t>Tratamento de prémios de seguro em incumprimento</t>
+  </si>
+  <si>
+    <t>25,00</t>
+  </si>
+  <si>
+    <t>Reclamações de avaliações fiscais (autárquicas, IMT, etc.)</t>
+  </si>
+  <si>
+    <t>Tratamento do Modelo I do IMI</t>
+  </si>
+  <si>
+    <t>Processamento de pedido de informação de entidade externa 
+(PSP, GNR, Brisa, Seguradora, etc.)</t>
+  </si>
+  <si>
+    <t>11. Declarações / Requerimentos</t>
+  </si>
+  <si>
+    <t>Outras declarações</t>
+  </si>
+  <si>
+    <t>Requerimento de redução da taxa de IMT</t>
+  </si>
+  <si>
+    <t>Requerimento a câmaras municipais ou outras instituições</t>
+  </si>
+  <si>
+    <t>Autorização para obras e/ou obtenção de licenças</t>
+  </si>
+  <si>
+    <t>Autorização para representação em assembleias de condóminos</t>
+  </si>
+  <si>
+    <t>Autorização de averbamento de alvarás, no âmbito da atividade 
+do locatário</t>
+  </si>
+  <si>
+    <t>Anexação e/ou destaques (modificação de propriedade)</t>
+  </si>
+  <si>
+    <t>125,00</t>
+  </si>
+  <si>
+    <t>13. Comissão de deslocação de representante do Banco</t>
+  </si>
+  <si>
+    <t>14. Comissão de reembolso antecipado parcial</t>
+  </si>
+  <si>
+    <t>15. Comissão de recuperação de valores em dívida</t>
+  </si>
+  <si>
+    <t>16. Comissão de recuperação do ativo</t>
+  </si>
+  <si>
+    <t>200,00</t>
+  </si>
+  <si>
+    <t>17. Comissão de reembolso antecipado total</t>
+  </si>
+  <si>
+    <t>Montante total ≤ 200.000 € </t>
+  </si>
+  <si>
+    <t>Montante total &gt; 200.000 € e ≤ 500.000 € </t>
+  </si>
+  <si>
+    <t>Montante total &gt; 500.000 € </t>
+  </si>
+  <si>
+    <t>Comissões contratuais</t>
+  </si>
+  <si>
+    <t>Comissão de gestão</t>
+  </si>
+  <si>
+    <t>Comissão de processamento de renda</t>
+  </si>
+  <si>
+    <t>Comissão por contratos de sublocação</t>
+  </si>
+  <si>
+    <t>Autorização de sublocação</t>
+  </si>
+  <si>
+    <t>Cessão da posição contratual</t>
+  </si>
+  <si>
+    <t>Comissões relativas a atos administrativos</t>
+  </si>
+  <si>
+    <t>Declarações / Requerimentos</t>
+  </si>
+  <si>
+    <t>Comissão de recuperação do ativo</t>
+  </si>
+  <si>
+    <t>BANKINTER</t>
+  </si>
+  <si>
+    <t>Euros 
+(min/máx)</t>
+  </si>
+  <si>
+    <t>Comissão de Estudo do 
+Crédito Habitação</t>
+  </si>
+  <si>
+    <t>Comissão de Avaliação</t>
+  </si>
+  <si>
+    <t>220,00</t>
+  </si>
+  <si>
+    <t>Comissão de Formalização 
+do Crédito Habitação</t>
+  </si>
+  <si>
+    <t>Comissão de Contrato do 
+Crédito Habitação</t>
+  </si>
+  <si>
+    <t>Comissão de Tramitação</t>
+  </si>
+  <si>
+    <t>Comissão de Fiança</t>
+  </si>
+  <si>
+    <t>Comissão de Solicitadoria</t>
+  </si>
+  <si>
+    <t>Comissão de Vistoria</t>
+  </si>
+  <si>
+    <t>Comissões Iniciais</t>
+  </si>
+  <si>
+    <t>Comissão de 
+Processamento de 
+Prestação</t>
+  </si>
+  <si>
+    <t>2,50</t>
+  </si>
+  <si>
+    <t>Comissão pela 
+Recuperação de Valores 
+em Dívida</t>
+  </si>
+  <si>
+    <t>12,00/
+150,00</t>
+  </si>
+  <si>
+    <t>Comissão de Penalização 
+por Amortização 
+Antecipada Parcial no 
+Crédito Habitação:
+    - Taxa Variável
+    - Durante o período de 
+Taxa Fixa</t>
+  </si>
+  <si>
+    <t>--
+--</t>
+  </si>
+  <si>
+    <t>Comissão de Penalização 
+por Amortização 
+Antecipada Total no Crédito 
+Habitação:
+    - Taxa Variável
+    - Durante o período de 
+Taxa Fixa</t>
+  </si>
+  <si>
+    <t>Comissões Durante a Vigência do Contrato</t>
+  </si>
+  <si>
+    <t>Comissões no Termo do Contrato</t>
+  </si>
+  <si>
+    <t>Comissão de Estudo e 
+Análise 
+(Arrangement Fee)</t>
+  </si>
+  <si>
+    <t>240,00 / --</t>
+  </si>
+  <si>
+    <t>330,00</t>
+  </si>
+  <si>
+    <t>225,00</t>
+  </si>
+  <si>
+    <t>Comissão de Estudo do 
+Home Equity</t>
+  </si>
+  <si>
+    <t>Comissão de Formalização 
+do Home Equity</t>
+  </si>
+  <si>
+    <t>Comissão de Penalização 
+por Amortização 
+Antecipada Parcial:
+    - Taxa Variável
+    - Durante o período de 
+Taxa Fixa</t>
+  </si>
+  <si>
+    <t>Comissão de Penalização 
+por Amortização 
+Antecipada Total:
+    - Taxa Variável
+    - Durante o período de 
+Taxa Fixa</t>
+  </si>
+  <si>
+    <t>Comissão de Estudo e 
+Análise (Arrangement Fee)</t>
+  </si>
+  <si>
+    <t>Comissão de Abertura de 
+Crédito</t>
+  </si>
+  <si>
+    <t>Comissão de Penalização 
+por Amortização 
+Antecipada Parcial no 
+Crédito Habitação:
+    - Taxa Variável</t>
+  </si>
+  <si>
+    <t>Comissão de Penalização 
+por Amortização 
+Antecipada Total no Crédito 
+Habitação:
+    - Taxa Variável</t>
+  </si>
+  <si>
+    <t>Avaliações - Fracções 
+Autónomas</t>
+  </si>
+  <si>
+    <t>Comissão de Reembolso 
+Antecipado Parcial
+- Taxa Variável
+- Taxa Fixa</t>
+  </si>
+  <si>
+    <t>Comissão por restituição do 
+Bem fora de prazo:
+- Renda Mensal
+- Renda Trimestral</t>
+  </si>
+  <si>
+    <t>Comissões relativas a actos 
+administrativos:
+- 2ªs vias de facturas / 
+recibos
+- IMI - Imposto Municipal 
+sobre Imóveis e Tarifas de 
+Saneamento</t>
+  </si>
+  <si>
+    <t>15,00
+30,00</t>
+  </si>
+  <si>
+    <t>Rescisões Antecipadas / 
+Amortizações Totais
+- Taxa Variável
+- Taxa Fixa</t>
+  </si>
+  <si>
+    <t>Commission Category</t>
+  </si>
+  <si>
+    <t>Commission Type</t>
+  </si>
+  <si>
+    <t>Commission Subtype</t>
+  </si>
+  <si>
+    <t>comissões durante a vigência do contrato</t>
+  </si>
+  <si>
+    <t>comissões no termo do contrato</t>
+  </si>
+  <si>
+    <t>outras despesas associadas</t>
+  </si>
 </sst>
 </file>
 
@@ -997,7 +1904,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1082,8 +1989,24 @@
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,8 +2031,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1117,12 +2046,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1146,15 +2090,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1470,19 +2422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7B192E-1144-334A-BC3F-E6C17F9CA1BB}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:K376"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView zoomScale="40" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:W376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1742,7 +2695,7 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="24" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1762,7 +2715,7 @@
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
@@ -1803,7 +2756,7 @@
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="24" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1823,7 +2776,7 @@
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1872,19 +2825,19 @@
       <c r="A25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1892,43 +2845,43 @@
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7"/>
       <c r="C28" s="7"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="25" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1942,8 +2895,8 @@
       <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="11" t="s">
@@ -2127,20 +3080,34 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="2"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>9</v>
@@ -2153,163 +3120,177 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>152</v>
+      <c r="A47" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>30</v>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="2"/>
-      <c r="C48" s="7"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="E50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="F54" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E55" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="8">
-        <v>0</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="8">
-        <v>0</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>33</v>
+      <c r="F55" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>9</v>
@@ -2322,57 +3303,54 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="E58" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -2381,18 +3359,18 @@
         <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0</v>
+      <c r="C61" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>9</v>
@@ -2400,36 +3378,33 @@
       <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>96</v>
+      <c r="A62" t="s">
+        <v>159</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
@@ -2438,95 +3413,92 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="66" spans="1:6">
+      <c r="A66" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="37">
+      <c r="A69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E72" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="7"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" ht="37">
-      <c r="A71" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="7"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="2" t="s">
-        <v>106</v>
+      <c r="A74" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>9</v>
@@ -2534,50 +3506,56 @@
       <c r="E74" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="F74" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="2" t="s">
-        <v>108</v>
+      <c r="A75" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C76" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
-        <v>111</v>
+      <c r="A77" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>9</v>
@@ -2586,15 +3564,18 @@
         <v>107</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>9</v>
@@ -2603,18 +3584,18 @@
         <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>9</v>
@@ -2623,575 +3604,2223 @@
         <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="C82" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="F82" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="2" t="s">
-        <v>116</v>
+      <c r="A83" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C83" s="7"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="7"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C86" s="7"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="A86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" s="2" t="s">
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="18">
+        <v>230</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="18">
+        <v>280</v>
+      </c>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="18">
+        <v>160</v>
+      </c>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="18">
+        <v>230</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="18">
+        <v>115</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="18">
+        <v>50</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H103" s="16"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="18">
         <v>25</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="18" t="s">
+      <c r="E104" s="16"/>
+      <c r="F104" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" s="16"/>
+      <c r="C105" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H105" s="16"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" s="16"/>
+      <c r="C108" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" s="16"/>
+      <c r="C109" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H109" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="221">
+      <c r="A119" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="20">
-        <v>230</v>
-      </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="H95" s="18"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="20">
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>279</v>
+      </c>
+      <c r="B122" t="s">
         <v>280</v>
       </c>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="H96" s="18"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="20">
-        <v>160</v>
-      </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H97" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="20">
-        <v>230</v>
-      </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="H99" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="18" t="s">
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>281</v>
+      </c>
+      <c r="B123" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>282</v>
+      </c>
+      <c r="B124" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>283</v>
+      </c>
+      <c r="B125" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>284</v>
+      </c>
+      <c r="B126" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>287</v>
+      </c>
+      <c r="B128" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>288</v>
+      </c>
+      <c r="B129" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>290</v>
+      </c>
+      <c r="B130" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>291</v>
+      </c>
+      <c r="B131" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>295</v>
+      </c>
+      <c r="B135" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>297</v>
+      </c>
+      <c r="B136" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>298</v>
+      </c>
+      <c r="B137" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>299</v>
+      </c>
+      <c r="B138" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H100" s="18"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="20">
-        <v>115</v>
-      </c>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="H101" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H102" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G103" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H103" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H104" s="18"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="20">
-        <v>50</v>
-      </c>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="H105" s="18"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="20">
-        <v>25</v>
-      </c>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="H106" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E107" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H107" s="18"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G108" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H108" s="18"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G109" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H109" s="18"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D110" s="20"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="H110" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="D111" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="H111" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="18" t="s">
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>301</v>
+      </c>
+      <c r="B140" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>304</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>305</v>
+      </c>
+      <c r="B143" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>312</v>
+      </c>
+      <c r="B148" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>316</v>
+      </c>
+      <c r="B151" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>318</v>
+      </c>
+      <c r="B152" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>319</v>
+      </c>
+      <c r="B153" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>202</v>
       </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G112" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H112" s="18"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G114" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H114" s="18"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>328</v>
+      </c>
+      <c r="B163" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>330</v>
+      </c>
+      <c r="B165" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="409.6">
+      <c r="A173" s="21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="B174" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>407</v>
+      </c>
+      <c r="B177" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>409</v>
+      </c>
+      <c r="B178" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>297</v>
+      </c>
+      <c r="B182" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>298</v>
+      </c>
+      <c r="B183" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>299</v>
+      </c>
+      <c r="B184" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>301</v>
+      </c>
+      <c r="B186" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>416</v>
+      </c>
+      <c r="B188" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>418</v>
+      </c>
+      <c r="B189" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>398</v>
+      </c>
+      <c r="B192" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>421</v>
+      </c>
+      <c r="B194" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>422</v>
+      </c>
+      <c r="B195" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="B200" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>307</v>
+      </c>
+      <c r="B202" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>312</v>
+      </c>
+      <c r="B204" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>314</v>
+      </c>
+      <c r="B205" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>316</v>
+      </c>
+      <c r="B207" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>318</v>
+      </c>
+      <c r="B208" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>319</v>
+      </c>
+      <c r="B209" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>321</v>
+      </c>
+      <c r="B211" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>431</v>
+      </c>
+      <c r="B212" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>432</v>
+      </c>
+      <c r="B213" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>433</v>
+      </c>
+      <c r="B214" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>330</v>
+      </c>
+      <c r="B217" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>332</v>
+      </c>
+      <c r="B218" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="21"/>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="21"/>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B222" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="B223" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>438</v>
+      </c>
+      <c r="B228" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="B229" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="B230" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>441</v>
+      </c>
+      <c r="B231" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>443</v>
+      </c>
+      <c r="B236" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>445</v>
+      </c>
+      <c r="B237" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>446</v>
+      </c>
+      <c r="B238" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>447</v>
+      </c>
+      <c r="B239" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>449</v>
+      </c>
+      <c r="B240" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>451</v>
+      </c>
+      <c r="B242" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>453</v>
+      </c>
+      <c r="B243" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>455</v>
+      </c>
+      <c r="B244" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>457</v>
+      </c>
+      <c r="B245" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>458</v>
+      </c>
+      <c r="B246" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>460</v>
+      </c>
+      <c r="B247" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>461</v>
+      </c>
+      <c r="B248" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>462</v>
+      </c>
+      <c r="B249" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>464</v>
+      </c>
+      <c r="B250" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>465</v>
+      </c>
+      <c r="B251" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>466</v>
+      </c>
+      <c r="B252" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>398</v>
+      </c>
+      <c r="B255" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>468</v>
+      </c>
+      <c r="B256" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>469</v>
+      </c>
+      <c r="B257" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>470</v>
+      </c>
+      <c r="B258" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>471</v>
+      </c>
+      <c r="B259" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>472</v>
+      </c>
+      <c r="B260" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>473</v>
+      </c>
+      <c r="B261" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>474</v>
+      </c>
+      <c r="B262" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>421</v>
+      </c>
+      <c r="B264" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>422</v>
+      </c>
+      <c r="B265" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>476</v>
+      </c>
+      <c r="B266" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>310</v>
+      </c>
+      <c r="B268" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>312</v>
+      </c>
+      <c r="B270" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>314</v>
+      </c>
+      <c r="B271" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>479</v>
+      </c>
+      <c r="B272" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>310</v>
+      </c>
+      <c r="B275" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>432</v>
+      </c>
+      <c r="B276" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>433</v>
+      </c>
+      <c r="B277" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B281" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>505</v>
+      </c>
+      <c r="B282" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>496</v>
+      </c>
+      <c r="B283" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>497</v>
+      </c>
+      <c r="B284" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>499</v>
+      </c>
+      <c r="B285" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>500</v>
+      </c>
+      <c r="B286" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>501</v>
+      </c>
+      <c r="B287" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>502</v>
+      </c>
+      <c r="B288" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>503</v>
+      </c>
+      <c r="B289" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>504</v>
+      </c>
+      <c r="B290" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>506</v>
+      </c>
+      <c r="B292" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>508</v>
+      </c>
+      <c r="B293" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>510</v>
+      </c>
+      <c r="B294" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>512</v>
+      </c>
+      <c r="B296" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B300" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>505</v>
+      </c>
+      <c r="B301" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>515</v>
+      </c>
+      <c r="B302" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>497</v>
+      </c>
+      <c r="B303" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>501</v>
+      </c>
+      <c r="B304" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>503</v>
+      </c>
+      <c r="B305" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>504</v>
+      </c>
+      <c r="B306" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>506</v>
+      </c>
+      <c r="B308" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>508</v>
+      </c>
+      <c r="B309" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>510</v>
+      </c>
+      <c r="B310" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>512</v>
+      </c>
+      <c r="B312" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B316" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>505</v>
+      </c>
+      <c r="B317" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>519</v>
+      </c>
+      <c r="B318" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>520</v>
+      </c>
+      <c r="B319" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>506</v>
+      </c>
+      <c r="B321" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>508</v>
+      </c>
+      <c r="B322" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>521</v>
+      </c>
+      <c r="B323" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>522</v>
+      </c>
+      <c r="B325" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B329" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>505</v>
+      </c>
+      <c r="B330" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>523</v>
+      </c>
+      <c r="B331" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>520</v>
+      </c>
+      <c r="B332" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>506</v>
+      </c>
+      <c r="B334" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>508</v>
+      </c>
+      <c r="B335" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>521</v>
+      </c>
+      <c r="B336" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>522</v>
+      </c>
+      <c r="B338" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B342" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>505</v>
+      </c>
+      <c r="B343" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>519</v>
+      </c>
+      <c r="B344" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>497</v>
+      </c>
+      <c r="B345" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>501</v>
+      </c>
+      <c r="B346" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>502</v>
+      </c>
+      <c r="B347" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>524</v>
+      </c>
+      <c r="B348" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>503</v>
+      </c>
+      <c r="B349" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>506</v>
+      </c>
+      <c r="B351" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>508</v>
+      </c>
+      <c r="B352" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>521</v>
+      </c>
+      <c r="B353" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>522</v>
+      </c>
+      <c r="B355" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B359" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>513</v>
+      </c>
+      <c r="B360" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>508</v>
+      </c>
+      <c r="B361" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>525</v>
+      </c>
+      <c r="B362" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>526</v>
+      </c>
+      <c r="B364" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B368" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>513</v>
+      </c>
+      <c r="B369" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>527</v>
+      </c>
+      <c r="B370" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>528</v>
+      </c>
+      <c r="B371" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>529</v>
+      </c>
+      <c r="B372" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>530</v>
+      </c>
+      <c r="B373" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>508</v>
+      </c>
+      <c r="B374" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>532</v>
+      </c>
+      <c r="B376" t="s">
+        <v>511</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B66:D66"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="E25:E27"/>
@@ -3206,15 +5835,2192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1538960B-ADB3-2241-AACC-C8F99E1C3B1B}">
+  <dimension ref="A1:C227"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>536</v>
+      </c>
+      <c r="B14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>537</v>
+      </c>
+      <c r="B16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>537</v>
+      </c>
+      <c r="B18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>537</v>
+      </c>
+      <c r="B19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>537</v>
+      </c>
+      <c r="B20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>537</v>
+      </c>
+      <c r="B21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" t="s">
+        <v>339</v>
+      </c>
+      <c r="C26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>536</v>
+      </c>
+      <c r="B28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>536</v>
+      </c>
+      <c r="B29" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>536</v>
+      </c>
+      <c r="B30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C30" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>536</v>
+      </c>
+      <c r="B31" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>536</v>
+      </c>
+      <c r="B32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>536</v>
+      </c>
+      <c r="B33" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>537</v>
+      </c>
+      <c r="B34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>537</v>
+      </c>
+      <c r="B35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>537</v>
+      </c>
+      <c r="B36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>537</v>
+      </c>
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>537</v>
+      </c>
+      <c r="B38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>537</v>
+      </c>
+      <c r="B39" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>537</v>
+      </c>
+      <c r="B40" t="s">
+        <v>365</v>
+      </c>
+      <c r="C40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>538</v>
+      </c>
+      <c r="B41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>538</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>538</v>
+      </c>
+      <c r="B43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>538</v>
+      </c>
+      <c r="B44" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>538</v>
+      </c>
+      <c r="B45" t="s">
+        <v>369</v>
+      </c>
+      <c r="C45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>538</v>
+      </c>
+      <c r="B46" t="s">
+        <v>369</v>
+      </c>
+      <c r="C46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>536</v>
+      </c>
+      <c r="B47" t="s">
+        <v>373</v>
+      </c>
+      <c r="C47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>536</v>
+      </c>
+      <c r="B48" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>536</v>
+      </c>
+      <c r="B49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>536</v>
+      </c>
+      <c r="B50" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>536</v>
+      </c>
+      <c r="B51" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>536</v>
+      </c>
+      <c r="B52" t="s">
+        <v>339</v>
+      </c>
+      <c r="C52" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>536</v>
+      </c>
+      <c r="B53" t="s">
+        <v>339</v>
+      </c>
+      <c r="C53" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>536</v>
+      </c>
+      <c r="B54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C54" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>536</v>
+      </c>
+      <c r="B55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>537</v>
+      </c>
+      <c r="B56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C56" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>537</v>
+      </c>
+      <c r="B57" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>334</v>
+      </c>
+      <c r="B59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>334</v>
+      </c>
+      <c r="B60" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>334</v>
+      </c>
+      <c r="B61" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>536</v>
+      </c>
+      <c r="B62" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>536</v>
+      </c>
+      <c r="B63" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>536</v>
+      </c>
+      <c r="B64" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>536</v>
+      </c>
+      <c r="B65" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>536</v>
+      </c>
+      <c r="B66" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>536</v>
+      </c>
+      <c r="B67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>536</v>
+      </c>
+      <c r="B68" t="s">
+        <v>387</v>
+      </c>
+      <c r="C68" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>537</v>
+      </c>
+      <c r="B69" t="s">
+        <v>350</v>
+      </c>
+      <c r="C69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>334</v>
+      </c>
+      <c r="B70" t="s">
+        <v>388</v>
+      </c>
+      <c r="C70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" t="s">
+        <v>388</v>
+      </c>
+      <c r="C71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>334</v>
+      </c>
+      <c r="B72" t="s">
+        <v>388</v>
+      </c>
+      <c r="C72" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" t="s">
+        <v>388</v>
+      </c>
+      <c r="C73" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>334</v>
+      </c>
+      <c r="B74" t="s">
+        <v>388</v>
+      </c>
+      <c r="C74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" t="s">
+        <v>388</v>
+      </c>
+      <c r="C75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>334</v>
+      </c>
+      <c r="B76" t="s">
+        <v>388</v>
+      </c>
+      <c r="C76" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" t="s">
+        <v>388</v>
+      </c>
+      <c r="C77" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>334</v>
+      </c>
+      <c r="B78" t="s">
+        <v>388</v>
+      </c>
+      <c r="C78" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>334</v>
+      </c>
+      <c r="B79" t="s">
+        <v>388</v>
+      </c>
+      <c r="C79" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>334</v>
+      </c>
+      <c r="B80" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>334</v>
+      </c>
+      <c r="B83" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>334</v>
+      </c>
+      <c r="B86" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>536</v>
+      </c>
+      <c r="B87" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>536</v>
+      </c>
+      <c r="B88" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>536</v>
+      </c>
+      <c r="B90" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>536</v>
+      </c>
+      <c r="B91" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>536</v>
+      </c>
+      <c r="B92" t="s">
+        <v>342</v>
+      </c>
+      <c r="C92" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>536</v>
+      </c>
+      <c r="B93" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>536</v>
+      </c>
+      <c r="B94" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>536</v>
+      </c>
+      <c r="B95" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>536</v>
+      </c>
+      <c r="B96" t="s">
+        <v>400</v>
+      </c>
+      <c r="C96" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>536</v>
+      </c>
+      <c r="B97" t="s">
+        <v>400</v>
+      </c>
+      <c r="C97" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>537</v>
+      </c>
+      <c r="B98" t="s">
+        <v>350</v>
+      </c>
+      <c r="C98" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>537</v>
+      </c>
+      <c r="B99" t="s">
+        <v>350</v>
+      </c>
+      <c r="C99" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>537</v>
+      </c>
+      <c r="B100" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>537</v>
+      </c>
+      <c r="B101" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>538</v>
+      </c>
+      <c r="B102" t="s">
+        <v>327</v>
+      </c>
+      <c r="C102" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>538</v>
+      </c>
+      <c r="B103" t="s">
+        <v>327</v>
+      </c>
+      <c r="C103" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>538</v>
+      </c>
+      <c r="B104" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>538</v>
+      </c>
+      <c r="B105" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>334</v>
+      </c>
+      <c r="B106" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>334</v>
+      </c>
+      <c r="B107" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>334</v>
+      </c>
+      <c r="B108" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>334</v>
+      </c>
+      <c r="B110" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>334</v>
+      </c>
+      <c r="B111" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>536</v>
+      </c>
+      <c r="B114" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>536</v>
+      </c>
+      <c r="B115" t="s">
+        <v>425</v>
+      </c>
+      <c r="C115" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>536</v>
+      </c>
+      <c r="B116" t="s">
+        <v>425</v>
+      </c>
+      <c r="C116" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>536</v>
+      </c>
+      <c r="B117" t="s">
+        <v>426</v>
+      </c>
+      <c r="C117" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>536</v>
+      </c>
+      <c r="B118" t="s">
+        <v>426</v>
+      </c>
+      <c r="C118" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>536</v>
+      </c>
+      <c r="B119" t="s">
+        <v>427</v>
+      </c>
+      <c r="C119" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>536</v>
+      </c>
+      <c r="B120" t="s">
+        <v>427</v>
+      </c>
+      <c r="C120" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>536</v>
+      </c>
+      <c r="B121" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>536</v>
+      </c>
+      <c r="B122" t="s">
+        <v>344</v>
+      </c>
+      <c r="C122" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>536</v>
+      </c>
+      <c r="B123" t="s">
+        <v>344</v>
+      </c>
+      <c r="C123" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>536</v>
+      </c>
+      <c r="B124" t="s">
+        <v>400</v>
+      </c>
+      <c r="C124" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>536</v>
+      </c>
+      <c r="B125" t="s">
+        <v>400</v>
+      </c>
+      <c r="C125" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>536</v>
+      </c>
+      <c r="B126" t="s">
+        <v>400</v>
+      </c>
+      <c r="C126" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>536</v>
+      </c>
+      <c r="B127" t="s">
+        <v>400</v>
+      </c>
+      <c r="C127" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>536</v>
+      </c>
+      <c r="B128" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>536</v>
+      </c>
+      <c r="B129" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>536</v>
+      </c>
+      <c r="B130" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>536</v>
+      </c>
+      <c r="B131" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>536</v>
+      </c>
+      <c r="B132" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>536</v>
+      </c>
+      <c r="B133" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>334</v>
+      </c>
+      <c r="B134" t="s">
+        <v>485</v>
+      </c>
+      <c r="C134" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>334</v>
+      </c>
+      <c r="B135" t="s">
+        <v>485</v>
+      </c>
+      <c r="C135" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>334</v>
+      </c>
+      <c r="B136" t="s">
+        <v>485</v>
+      </c>
+      <c r="C136" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>334</v>
+      </c>
+      <c r="B137" t="s">
+        <v>485</v>
+      </c>
+      <c r="C137" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>334</v>
+      </c>
+      <c r="B138" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>334</v>
+      </c>
+      <c r="B139" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>334</v>
+      </c>
+      <c r="B140" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>536</v>
+      </c>
+      <c r="B141" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>536</v>
+      </c>
+      <c r="B142" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>536</v>
+      </c>
+      <c r="B143" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>536</v>
+      </c>
+      <c r="B144" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>536</v>
+      </c>
+      <c r="B145" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>536</v>
+      </c>
+      <c r="B146" t="s">
+        <v>491</v>
+      </c>
+      <c r="C146" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>536</v>
+      </c>
+      <c r="B147" t="s">
+        <v>491</v>
+      </c>
+      <c r="C147" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>536</v>
+      </c>
+      <c r="B148" t="s">
+        <v>491</v>
+      </c>
+      <c r="C148" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>536</v>
+      </c>
+      <c r="B149" t="s">
+        <v>491</v>
+      </c>
+      <c r="C149" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>536</v>
+      </c>
+      <c r="B150" t="s">
+        <v>491</v>
+      </c>
+      <c r="C150" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>536</v>
+      </c>
+      <c r="B151" t="s">
+        <v>491</v>
+      </c>
+      <c r="C151" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>536</v>
+      </c>
+      <c r="B152" t="s">
+        <v>491</v>
+      </c>
+      <c r="C152" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>536</v>
+      </c>
+      <c r="B153" t="s">
+        <v>491</v>
+      </c>
+      <c r="C153" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>536</v>
+      </c>
+      <c r="B154" t="s">
+        <v>491</v>
+      </c>
+      <c r="C154" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>536</v>
+      </c>
+      <c r="B155" t="s">
+        <v>491</v>
+      </c>
+      <c r="C155" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>536</v>
+      </c>
+      <c r="B156" t="s">
+        <v>491</v>
+      </c>
+      <c r="C156" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>536</v>
+      </c>
+      <c r="B157" t="s">
+        <v>492</v>
+      </c>
+      <c r="C157" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>536</v>
+      </c>
+      <c r="B158" t="s">
+        <v>492</v>
+      </c>
+      <c r="C158" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>536</v>
+      </c>
+      <c r="B159" t="s">
+        <v>492</v>
+      </c>
+      <c r="C159" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>536</v>
+      </c>
+      <c r="B160" t="s">
+        <v>492</v>
+      </c>
+      <c r="C160" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>536</v>
+      </c>
+      <c r="B161" t="s">
+        <v>492</v>
+      </c>
+      <c r="C161" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>536</v>
+      </c>
+      <c r="B162" t="s">
+        <v>492</v>
+      </c>
+      <c r="C162" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>536</v>
+      </c>
+      <c r="B163" t="s">
+        <v>492</v>
+      </c>
+      <c r="C163" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>536</v>
+      </c>
+      <c r="B164" t="s">
+        <v>492</v>
+      </c>
+      <c r="C164" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>536</v>
+      </c>
+      <c r="B165" t="s">
+        <v>492</v>
+      </c>
+      <c r="C165" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>536</v>
+      </c>
+      <c r="B166" t="s">
+        <v>427</v>
+      </c>
+      <c r="C166" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>536</v>
+      </c>
+      <c r="B167" t="s">
+        <v>427</v>
+      </c>
+      <c r="C167" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>536</v>
+      </c>
+      <c r="B168" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>536</v>
+      </c>
+      <c r="B169" t="s">
+        <v>342</v>
+      </c>
+      <c r="C169" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>536</v>
+      </c>
+      <c r="B170" t="s">
+        <v>344</v>
+      </c>
+      <c r="C170" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>536</v>
+      </c>
+      <c r="B171" t="s">
+        <v>344</v>
+      </c>
+      <c r="C171" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>536</v>
+      </c>
+      <c r="B172" t="s">
+        <v>493</v>
+      </c>
+      <c r="C172" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>536</v>
+      </c>
+      <c r="B173" t="s">
+        <v>350</v>
+      </c>
+      <c r="C173" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>536</v>
+      </c>
+      <c r="B174" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>536</v>
+      </c>
+      <c r="B175" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>334</v>
+      </c>
+      <c r="B176" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>334</v>
+      </c>
+      <c r="B177" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>334</v>
+      </c>
+      <c r="B178" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>334</v>
+      </c>
+      <c r="B180" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>334</v>
+      </c>
+      <c r="B181" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>334</v>
+      </c>
+      <c r="B182" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>334</v>
+      </c>
+      <c r="B183" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>536</v>
+      </c>
+      <c r="B184" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>536</v>
+      </c>
+      <c r="B185" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>536</v>
+      </c>
+      <c r="B186" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>537</v>
+      </c>
+      <c r="B187" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>334</v>
+      </c>
+      <c r="B188" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>334</v>
+      </c>
+      <c r="B189" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>334</v>
+      </c>
+      <c r="B190" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>334</v>
+      </c>
+      <c r="B191" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>334</v>
+      </c>
+      <c r="B192" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>536</v>
+      </c>
+      <c r="B193" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>536</v>
+      </c>
+      <c r="B194" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>536</v>
+      </c>
+      <c r="B195" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>537</v>
+      </c>
+      <c r="B196" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>334</v>
+      </c>
+      <c r="B197" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>334</v>
+      </c>
+      <c r="B198" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>536</v>
+      </c>
+      <c r="B199" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>536</v>
+      </c>
+      <c r="B200" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>536</v>
+      </c>
+      <c r="B201" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>537</v>
+      </c>
+      <c r="B202" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>334</v>
+      </c>
+      <c r="B203" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>334</v>
+      </c>
+      <c r="B204" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>536</v>
+      </c>
+      <c r="B205" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>536</v>
+      </c>
+      <c r="B206" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>536</v>
+      </c>
+      <c r="B207" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>537</v>
+      </c>
+      <c r="B208" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>334</v>
+      </c>
+      <c r="B209" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>334</v>
+      </c>
+      <c r="B210" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>334</v>
+      </c>
+      <c r="B211" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>334</v>
+      </c>
+      <c r="B212" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>334</v>
+      </c>
+      <c r="B213" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>334</v>
+      </c>
+      <c r="B214" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>536</v>
+      </c>
+      <c r="B215" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>536</v>
+      </c>
+      <c r="B216" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>536</v>
+      </c>
+      <c r="B217" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>537</v>
+      </c>
+      <c r="B218" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>536</v>
+      </c>
+      <c r="B219" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>536</v>
+      </c>
+      <c r="B220" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>537</v>
+      </c>
+      <c r="B221" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>536</v>
+      </c>
+      <c r="B222" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>536</v>
+      </c>
+      <c r="B223" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>536</v>
+      </c>
+      <c r="B224" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>536</v>
+      </c>
+      <c r="B225" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>536</v>
+      </c>
+      <c r="B226" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>537</v>
+      </c>
+      <c r="B227" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C227" xr:uid="{86425F2E-FD20-CD46-8180-AE40DA71ABBB}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF33EB41-8CF0-6C4F-A81A-08D1CEAA8AAB}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58:C69"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="72.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="103.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="12" t="s">
@@ -4376,18 +9182,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F837F5D7-5842-564F-847B-11F5C259A95D}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="102.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="102.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5249,7 +10057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427C8E74-A512-1346-BD4D-40BE445FA910}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -5322,7 +10130,7 @@
       <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>267</v>
       </c>
       <c r="D5" t="s">
@@ -5333,7 +10141,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="C6" s="21"/>
+      <c r="C6" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
